--- a/excel_tables_dir/random_excel_data.xlsx
+++ b/excel_tables_dir/random_excel_data.xlsx
@@ -1,34 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherseroff\PycharmProjects\TGNumberChecker\excel_tables_dir\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cherseroff\PycharmProjects\TGNumberCheckerAppium\excel_tables_dir\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CDED35-402C-4D92-A9E2-33A626729C14}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA3391C-29C8-44D0-B034-4D95D8123329}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="248">
   <si>
     <t>Номер дела</t>
   </si>
@@ -63,214 +55,727 @@
     <t>А40-892805/2024</t>
   </si>
   <si>
+    <t>А40-386067/2024</t>
+  </si>
+  <si>
+    <t>А40-240430/2024</t>
+  </si>
+  <si>
+    <t>А40-250887/2024</t>
+  </si>
+  <si>
+    <t>А40-361843/2024</t>
+  </si>
+  <si>
+    <t>А40-706790/2024</t>
+  </si>
+  <si>
+    <t>А40-762074/2024</t>
+  </si>
+  <si>
+    <t>А40-224606/2024</t>
+  </si>
+  <si>
+    <t>А40-620315/2024</t>
+  </si>
+  <si>
+    <t>А40-214918/2024</t>
+  </si>
+  <si>
+    <t>А40-663460/2025</t>
+  </si>
+  <si>
+    <t>А40-334177/2025</t>
+  </si>
+  <si>
+    <t>А40-930607/2025</t>
+  </si>
+  <si>
+    <t>А40-877469/2025</t>
+  </si>
+  <si>
+    <t>А40-214671/2025</t>
+  </si>
+  <si>
+    <t>А40-451613/2025</t>
+  </si>
+  <si>
+    <t>А40-174704/2025</t>
+  </si>
+  <si>
+    <t>А40-882719/2025</t>
+  </si>
+  <si>
+    <t>А40-228908/2025</t>
+  </si>
+  <si>
+    <t>А40-754739/2025</t>
+  </si>
+  <si>
+    <t>А40-772002/2025</t>
+  </si>
+  <si>
+    <t>А40-148226/2025</t>
+  </si>
+  <si>
+    <t>А40-146280/2025</t>
+  </si>
+  <si>
+    <t>А40-751906/2025</t>
+  </si>
+  <si>
+    <t>А40-374459/2025</t>
+  </si>
+  <si>
+    <t>А40-676100/2025</t>
+  </si>
+  <si>
+    <t>А40-351085/2025</t>
+  </si>
+  <si>
+    <t>А40-874416/2025</t>
+  </si>
+  <si>
+    <t>А40-608805/2025</t>
+  </si>
+  <si>
+    <t>А40-891244/2025</t>
+  </si>
+  <si>
+    <t>А40-117070/2025</t>
+  </si>
+  <si>
+    <t>А40-557101/2025</t>
+  </si>
+  <si>
+    <t>А40-961449/2025</t>
+  </si>
+  <si>
+    <t>А40-565828/2025</t>
+  </si>
+  <si>
+    <t>А40-460697/2025</t>
+  </si>
+  <si>
+    <t>А40-417202/2025</t>
+  </si>
+  <si>
+    <t>А40-223447/2025</t>
+  </si>
+  <si>
+    <t>А40-895327/2025</t>
+  </si>
+  <si>
+    <t>А40-443060/2025</t>
+  </si>
+  <si>
+    <t>А40-566844/2025</t>
+  </si>
+  <si>
+    <t>А40-371912/2025</t>
+  </si>
+  <si>
+    <t>А40-266572/2025</t>
+  </si>
+  <si>
+    <t>А40-273683/2025</t>
+  </si>
+  <si>
+    <t>А40-541164/2025</t>
+  </si>
+  <si>
+    <t>А40-979783/2025</t>
+  </si>
+  <si>
+    <t>А40-793095/2025</t>
+  </si>
+  <si>
+    <t>А40-795287/2025</t>
+  </si>
+  <si>
+    <t>А40-714882/2025</t>
+  </si>
+  <si>
+    <t>А40-657316/2025</t>
+  </si>
+  <si>
+    <t>А40-754956/2025</t>
+  </si>
+  <si>
+    <t>А40-325458/2025</t>
+  </si>
+  <si>
+    <t>А40-986008/2025</t>
+  </si>
+  <si>
+    <t>А40-712071/2025</t>
+  </si>
+  <si>
+    <t>А40-997210/2025</t>
+  </si>
+  <si>
+    <t>А40-506203/2025</t>
+  </si>
+  <si>
+    <t>А40-879262/2025</t>
+  </si>
+  <si>
+    <t>А40-215991/2025</t>
+  </si>
+  <si>
+    <t>А40-848055/2025</t>
+  </si>
+  <si>
+    <t>А40-901984/2025</t>
+  </si>
+  <si>
+    <t>А40-254895/2025</t>
+  </si>
+  <si>
+    <t>А40-997789/2025</t>
+  </si>
+  <si>
+    <t>А40-710080/2025</t>
+  </si>
+  <si>
     <t>17.04.2024</t>
   </si>
   <si>
+    <t>09.04.2024</t>
+  </si>
+  <si>
+    <t>22.10.2024</t>
+  </si>
+  <si>
+    <t>24.04.2024</t>
+  </si>
+  <si>
+    <t>03.07.2024</t>
+  </si>
+  <si>
+    <t>14.07.2024</t>
+  </si>
+  <si>
+    <t>05.09.2024</t>
+  </si>
+  <si>
+    <t>21.10.2024</t>
+  </si>
+  <si>
+    <t>08.03.2024</t>
+  </si>
+  <si>
+    <t>18.05.2024</t>
+  </si>
+  <si>
+    <t>05.10.2025</t>
+  </si>
+  <si>
+    <t>15.01.2025</t>
+  </si>
+  <si>
+    <t>05.07.2025</t>
+  </si>
+  <si>
+    <t>06.03.2025</t>
+  </si>
+  <si>
+    <t>01.12.2025</t>
+  </si>
+  <si>
+    <t>08.04.2025</t>
+  </si>
+  <si>
+    <t>03.02.2025</t>
+  </si>
+  <si>
+    <t>13.11.2025</t>
+  </si>
+  <si>
+    <t>11.04.2025</t>
+  </si>
+  <si>
+    <t>11.01.2025</t>
+  </si>
+  <si>
+    <t>27.10.2025</t>
+  </si>
+  <si>
+    <t>17.04.2025</t>
+  </si>
+  <si>
+    <t>19.11.2025</t>
+  </si>
+  <si>
+    <t>21.10.2025</t>
+  </si>
+  <si>
+    <t>01.10.2025</t>
+  </si>
+  <si>
+    <t>04.01.2025</t>
+  </si>
+  <si>
+    <t>03.06.2025</t>
+  </si>
+  <si>
+    <t>16.12.2025</t>
+  </si>
+  <si>
+    <t>02.11.2025</t>
+  </si>
+  <si>
+    <t>25.06.2025</t>
+  </si>
+  <si>
+    <t>08.12.2025</t>
+  </si>
+  <si>
+    <t>26.02.2025</t>
+  </si>
+  <si>
+    <t>22.01.2025</t>
+  </si>
+  <si>
+    <t>01.03.2025</t>
+  </si>
+  <si>
+    <t>22.05.2025</t>
+  </si>
+  <si>
+    <t>23.12.2025</t>
+  </si>
+  <si>
+    <t>11.10.2025</t>
+  </si>
+  <si>
+    <t>28.07.2025</t>
+  </si>
+  <si>
+    <t>15.12.2025</t>
+  </si>
+  <si>
+    <t>28.12.2025</t>
+  </si>
+  <si>
+    <t>23.07.2025</t>
+  </si>
+  <si>
+    <t>17.03.2025</t>
+  </si>
+  <si>
+    <t>06.06.2025</t>
+  </si>
+  <si>
+    <t>13.12.2025</t>
+  </si>
+  <si>
+    <t>26.07.2025</t>
+  </si>
+  <si>
+    <t>20.07.2025</t>
+  </si>
+  <si>
+    <t>27.03.2025</t>
+  </si>
+  <si>
+    <t>05.11.2025</t>
+  </si>
+  <si>
+    <t>19.04.2025</t>
+  </si>
+  <si>
+    <t>16.04.2025</t>
+  </si>
+  <si>
+    <t>07.11.2025</t>
+  </si>
+  <si>
+    <t>10.09.2025</t>
+  </si>
+  <si>
+    <t>28.02.2025</t>
+  </si>
+  <si>
+    <t>13.01.2025</t>
+  </si>
+  <si>
+    <t>18.10.2025</t>
+  </si>
+  <si>
+    <t>02.09.2025</t>
+  </si>
+  <si>
+    <t>24.04.2025</t>
+  </si>
+  <si>
+    <t>24.09.2025</t>
+  </si>
+  <si>
+    <t>21.07.2025</t>
+  </si>
+  <si>
+    <t>03.07.2025</t>
+  </si>
+  <si>
     <t>civil</t>
   </si>
   <si>
     <t>Лтд</t>
   </si>
   <si>
+    <t>Групп</t>
+  </si>
+  <si>
+    <t>Инкорпорэйтед</t>
+  </si>
+  <si>
+    <t>Лимитед</t>
+  </si>
+  <si>
+    <t>и партнеры</t>
+  </si>
+  <si>
+    <t>Инк</t>
+  </si>
+  <si>
+    <t>ИП</t>
+  </si>
+  <si>
+    <t>АО</t>
+  </si>
+  <si>
     <t>НПО «Васильева-Андреев»</t>
   </si>
   <si>
+    <t>ИП «Кириллов, Герасимова и Дорофеев»</t>
+  </si>
+  <si>
+    <t>НПО «Мясников, Родионов и Сазонова»</t>
+  </si>
+  <si>
+    <t>АО «Васильев Сысоев»</t>
+  </si>
+  <si>
+    <t>Сидоров Инкорпорэйтед</t>
+  </si>
+  <si>
+    <t>РАО «Юдин, Козлов и Филатов»</t>
+  </si>
+  <si>
+    <t>НПО «Лебедева Романов»</t>
+  </si>
+  <si>
+    <t>РАО «Константинова-Третьякова»</t>
+  </si>
+  <si>
+    <t>АО «Щербакова-Лыткин»</t>
+  </si>
+  <si>
+    <t>Марков Лимитед</t>
+  </si>
+  <si>
+    <t>АО «Иванов»</t>
+  </si>
+  <si>
+    <t>АО «Петров»</t>
+  </si>
+  <si>
+    <t>АО «Сидоров»</t>
+  </si>
+  <si>
+    <t>АО «Кузнецов»</t>
+  </si>
+  <si>
     <t>АО «Алексеева»</t>
   </si>
   <si>
+    <t>En +</t>
+  </si>
+  <si>
+    <t>Сибирская горно-металлургическая компания</t>
+  </si>
+  <si>
+    <t>РАО «Калинин»</t>
+  </si>
+  <si>
+    <t>ИП «Иванов-Шубин»</t>
+  </si>
+  <si>
+    <t>Дмитриев Инк</t>
+  </si>
+  <si>
+    <t>РАО «Алексеева-Зуев»</t>
+  </si>
+  <si>
+    <t>Киселев Инкорпорэйтед</t>
+  </si>
+  <si>
+    <t>Казаков Инкорпорэйтед</t>
+  </si>
+  <si>
+    <t>ОАО «Александров, Селезнев и Фокин»</t>
+  </si>
+  <si>
+    <t>ООО «Никитин»</t>
+  </si>
+  <si>
+    <t>ООО «Козлов»</t>
+  </si>
+  <si>
+    <t>ООО «Васильев»</t>
+  </si>
+  <si>
+    <t>ООО «Фролов»</t>
+  </si>
+  <si>
     <t>+7 990 110 4457</t>
   </si>
   <si>
+    <t>+7 993 719 9236</t>
+  </si>
+  <si>
+    <t>+7 990 072 8264</t>
+  </si>
+  <si>
+    <t>+7 990 065 8061</t>
+  </si>
+  <si>
+    <t>+7 907 390 9825</t>
+  </si>
+  <si>
+    <t>+7 988 162 9668</t>
+  </si>
+  <si>
+    <t>+7 932 167 3965</t>
+  </si>
+  <si>
+    <t>+7 964 126 7246</t>
+  </si>
+  <si>
+    <t>+7 990 069 9626</t>
+  </si>
+  <si>
+    <t>+7 990 258 0093</t>
+  </si>
+  <si>
+    <t>+79257937137</t>
+  </si>
+  <si>
+    <t>+79165023939</t>
+  </si>
+  <si>
+    <t>+79014697389</t>
+  </si>
+  <si>
+    <t>+79096689988</t>
+  </si>
+  <si>
+    <t>+79014175768</t>
+  </si>
+  <si>
+    <t>+74993255162</t>
+  </si>
+  <si>
+    <t>+74951411968</t>
+  </si>
+  <si>
+    <t>+79255748380</t>
+  </si>
+  <si>
+    <t>+79197767971</t>
+  </si>
+  <si>
+    <t>+79255500066</t>
+  </si>
+  <si>
+    <t>+74955324016</t>
+  </si>
+  <si>
+    <t>+74955324013</t>
+  </si>
+  <si>
+    <t>+74951500503</t>
+  </si>
+  <si>
+    <t>+79296191687</t>
+  </si>
+  <si>
+    <t>+79011479284</t>
+  </si>
+  <si>
+    <t>+79262711111</t>
+  </si>
+  <si>
+    <t>+74991123068</t>
+  </si>
+  <si>
+    <t>+79265457363</t>
+  </si>
+  <si>
+    <t>+74992361843</t>
+  </si>
+  <si>
+    <t>+79361772272</t>
+  </si>
+  <si>
+    <t>+79251881888</t>
+  </si>
+  <si>
+    <t>+79030171401</t>
+  </si>
+  <si>
+    <t>+79039605463</t>
+  </si>
+  <si>
+    <t>+74957900406</t>
+  </si>
+  <si>
+    <t>+79581007228</t>
+  </si>
+  <si>
+    <t>+74992388787</t>
+  </si>
+  <si>
+    <t>+79913326977</t>
+  </si>
+  <si>
+    <t>+74959592095</t>
+  </si>
+  <si>
+    <t>+74992367578</t>
+  </si>
+  <si>
+    <t>+74955857537</t>
+  </si>
+  <si>
+    <t>+79253933260</t>
+  </si>
+  <si>
+    <t>+79260073843</t>
+  </si>
+  <si>
+    <t>+74997025962</t>
+  </si>
+  <si>
+    <t>+74993220201</t>
+  </si>
+  <si>
+    <t>+79268505150</t>
+  </si>
+  <si>
+    <t>+74992373338</t>
+  </si>
+  <si>
+    <t>+79296542244</t>
+  </si>
+  <si>
+    <t>+79296539933</t>
+  </si>
+  <si>
+    <t>+79779375395</t>
+  </si>
+  <si>
+    <t>+74959119224</t>
+  </si>
+  <si>
+    <t>+74952150404</t>
+  </si>
+  <si>
+    <t>+79251750750</t>
+  </si>
+  <si>
+    <t>+79160223623</t>
+  </si>
+  <si>
+    <t>+74957745448</t>
+  </si>
+  <si>
+    <t>+79254889101</t>
+  </si>
+  <si>
+    <t>+79260001902</t>
+  </si>
+  <si>
+    <t>+74956760639</t>
+  </si>
+  <si>
+    <t>+74957722452</t>
+  </si>
+  <si>
+    <t>+74993912906</t>
+  </si>
+  <si>
+    <t>+74992365206</t>
+  </si>
+  <si>
     <t>sergeevelizar@hotmail.com</t>
   </si>
   <si>
-    <t>А40-386067/2024</t>
-  </si>
-  <si>
-    <t>09.04.2024</t>
-  </si>
-  <si>
-    <t>Групп</t>
-  </si>
-  <si>
-    <t>ИП «Кириллов, Герасимова и Дорофеев»</t>
-  </si>
-  <si>
-    <t>En +</t>
-  </si>
-  <si>
     <t>anikita_96@yandex.ru</t>
   </si>
   <si>
-    <t>А40-240430/2024</t>
-  </si>
-  <si>
-    <t>22.10.2024</t>
-  </si>
-  <si>
-    <t>Инкорпорэйтед</t>
-  </si>
-  <si>
-    <t>НПО «Мясников, Родионов и Сазонова»</t>
-  </si>
-  <si>
-    <t>Сибирская горно-металлургическая компания</t>
-  </si>
-  <si>
-    <t>+7 990 072 8264</t>
-  </si>
-  <si>
     <t>loginovevlampi@rogov.net</t>
   </si>
   <si>
-    <t>А40-250887/2024</t>
-  </si>
-  <si>
-    <t>24.04.2024</t>
-  </si>
-  <si>
-    <t>АО «Васильев Сысоев»</t>
-  </si>
-  <si>
-    <t>РАО «Калинин»</t>
-  </si>
-  <si>
-    <t>+7 990 065 8061</t>
-  </si>
-  <si>
     <t>aksenovaglafira@zao.net</t>
   </si>
   <si>
-    <t>А40-361843/2024</t>
-  </si>
-  <si>
-    <t>03.07.2024</t>
-  </si>
-  <si>
-    <t>Сидоров Инкорпорэйтед</t>
-  </si>
-  <si>
-    <t>ИП «Иванов-Шубин»</t>
-  </si>
-  <si>
     <t>sokrat_31@mail.ru</t>
   </si>
   <si>
-    <t>А40-706790/2024</t>
-  </si>
-  <si>
-    <t>14.07.2024</t>
-  </si>
-  <si>
-    <t>Лимитед</t>
-  </si>
-  <si>
-    <t>РАО «Юдин, Козлов и Филатов»</t>
-  </si>
-  <si>
-    <t>Дмитриев Инк</t>
-  </si>
-  <si>
     <t>foti2005@npo.org</t>
   </si>
   <si>
-    <t>А40-762074/2024</t>
-  </si>
-  <si>
-    <t>05.09.2024</t>
-  </si>
-  <si>
-    <t>и партнеры</t>
-  </si>
-  <si>
-    <t>НПО «Лебедева Романов»</t>
-  </si>
-  <si>
-    <t>РАО «Алексеева-Зуев»</t>
-  </si>
-  <si>
     <t>samson2000@yahoo.com</t>
   </si>
   <si>
-    <t>А40-224606/2024</t>
-  </si>
-  <si>
-    <t>21.10.2024</t>
-  </si>
-  <si>
-    <t>РАО «Константинова-Третьякова»</t>
-  </si>
-  <si>
-    <t>Киселев Инкорпорэйтед</t>
-  </si>
-  <si>
     <t>stojansokolov@mail.ru</t>
   </si>
   <si>
-    <t>А40-620315/2024</t>
-  </si>
-  <si>
-    <t>08.03.2024</t>
-  </si>
-  <si>
-    <t>Инк</t>
-  </si>
-  <si>
-    <t>АО «Щербакова-Лыткин»</t>
-  </si>
-  <si>
-    <t>Казаков Инкорпорэйтед</t>
-  </si>
-  <si>
-    <t>+7 990 069 9626</t>
-  </si>
-  <si>
     <t>emmanuil1998@ip.ru</t>
   </si>
   <si>
-    <t>А40-214918/2024</t>
-  </si>
-  <si>
-    <t>18.05.2024</t>
-  </si>
-  <si>
-    <t>Марков Лимитед</t>
-  </si>
-  <si>
-    <t>ОАО «Александров, Селезнев и Фокин»</t>
-  </si>
-  <si>
-    <t>+7 990 258 0093</t>
-  </si>
-  <si>
     <t>marfa_39@hotmail.com</t>
   </si>
   <si>
-    <t>+7 993 719 9236</t>
-  </si>
-  <si>
-    <t>+7 964 126 7246</t>
-  </si>
-  <si>
-    <t>+7 932 167 3965</t>
-  </si>
-  <si>
-    <t>+7 907 390 9825</t>
-  </si>
-  <si>
-    <t>+7 988 162 9668</t>
+    <t>info@mail.com</t>
+  </si>
+  <si>
+    <t>support@yahoo.com</t>
+  </si>
+  <si>
+    <t>contact@mail.com</t>
+  </si>
+  <si>
+    <t>support@mail.com</t>
+  </si>
+  <si>
+    <t>contact@gmail.com</t>
+  </si>
+  <si>
+    <t>support@gmail.com</t>
+  </si>
+  <si>
+    <t>info@yahoo.com</t>
+  </si>
+  <si>
+    <t>info@gmail.com</t>
+  </si>
+  <si>
+    <t>contact@yahoo.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -278,7 +783,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -317,14 +822,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -343,9 +845,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -383,9 +885,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -417,9 +919,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -451,9 +971,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -627,13 +1165,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="N52" sqref="N52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
@@ -645,10 +1183,9 @@
     <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -680,329 +1217,1991 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="F2">
         <v>3998681348</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>155</v>
       </c>
       <c r="H2">
         <v>4711125419</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
+      <c r="I2" t="s">
+        <v>169</v>
       </c>
       <c r="J2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>142</v>
       </c>
       <c r="F3">
         <v>4872832230</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>156</v>
       </c>
       <c r="H3">
         <v>6151060517</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>72</v>
+      <c r="I3" t="s">
+        <v>170</v>
       </c>
       <c r="J3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="F4">
         <v>5644216222</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
+        <v>157</v>
       </c>
       <c r="H4">
         <v>3424571010</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>29</v>
+      <c r="I4" t="s">
+        <v>171</v>
       </c>
       <c r="J4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>134</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>144</v>
       </c>
       <c r="F5">
         <v>7053395629</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>158</v>
       </c>
       <c r="H5">
         <v>5305514890</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>35</v>
+      <c r="I5" t="s">
+        <v>172</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>145</v>
       </c>
       <c r="F6">
         <v>4108787915</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="H6">
         <v>8925233947</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>75</v>
+      <c r="I6" t="s">
+        <v>173</v>
       </c>
       <c r="J6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="F7">
         <v>8162452385</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>160</v>
       </c>
       <c r="H7">
         <v>1390789575</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>76</v>
+      <c r="I7" t="s">
+        <v>174</v>
       </c>
       <c r="J7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="F8">
         <v>9372534875</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="H8">
         <v>6342468152</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>74</v>
+      <c r="I8" t="s">
+        <v>175</v>
       </c>
       <c r="J8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>148</v>
       </c>
       <c r="F9">
         <v>6749903439</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>162</v>
       </c>
       <c r="H9">
         <v>4141881231</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>73</v>
+      <c r="I9" t="s">
+        <v>176</v>
       </c>
       <c r="J9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D10" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="E10" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="F10">
         <v>9812919398</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>163</v>
       </c>
       <c r="H10">
         <v>6000680301</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>64</v>
+      <c r="I10" t="s">
+        <v>177</v>
       </c>
       <c r="J10" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>132</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
       <c r="E11" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="F11">
         <v>9496984831</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>164</v>
       </c>
       <c r="H11">
         <v>1617989318</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" t="s">
+        <v>178</v>
+      </c>
+      <c r="J11" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12">
+        <v>6771974863</v>
+      </c>
+      <c r="G12" t="s">
+        <v>165</v>
+      </c>
+      <c r="H12">
+        <v>4622912836</v>
+      </c>
+      <c r="I12" t="s">
+        <v>179</v>
+      </c>
+      <c r="J12" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" t="s">
+        <v>132</v>
+      </c>
+      <c r="D13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F13">
+        <v>8436904227</v>
+      </c>
+      <c r="G13" t="s">
+        <v>166</v>
+      </c>
+      <c r="H13">
+        <v>4170557204</v>
+      </c>
+      <c r="I13" t="s">
+        <v>180</v>
+      </c>
+      <c r="J13" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" t="s">
+        <v>132</v>
+      </c>
+      <c r="D14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E14" t="s">
+        <v>153</v>
+      </c>
+      <c r="F14">
+        <v>7963402877</v>
+      </c>
+      <c r="G14" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14">
+        <v>4069095461</v>
+      </c>
+      <c r="I14" t="s">
+        <v>181</v>
+      </c>
+      <c r="J14" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D15" t="s">
+        <v>140</v>
+      </c>
+      <c r="E15" t="s">
+        <v>154</v>
+      </c>
+      <c r="F15">
+        <v>1879712610</v>
+      </c>
+      <c r="G15" t="s">
+        <v>168</v>
+      </c>
+      <c r="H15">
+        <v>8254564396</v>
+      </c>
+      <c r="I15" t="s">
+        <v>182</v>
+      </c>
+      <c r="J15" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>86</v>
+      </c>
+      <c r="C16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F16">
+        <v>1088277688</v>
+      </c>
+      <c r="G16" t="s">
+        <v>165</v>
+      </c>
+      <c r="H16">
+        <v>8361781703</v>
+      </c>
+      <c r="I16" t="s">
+        <v>183</v>
+      </c>
+      <c r="J16" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" t="s">
+        <v>132</v>
+      </c>
+      <c r="D17" t="s">
+        <v>133</v>
+      </c>
+      <c r="E17" t="s">
+        <v>153</v>
+      </c>
+      <c r="F17">
+        <v>5426952238</v>
+      </c>
+      <c r="G17" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17">
+        <v>7289916895</v>
+      </c>
+      <c r="I17" t="s">
+        <v>184</v>
+      </c>
+      <c r="J17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" t="s">
+        <v>151</v>
+      </c>
+      <c r="F18">
+        <v>9888136936</v>
+      </c>
+      <c r="G18" t="s">
+        <v>168</v>
+      </c>
+      <c r="H18">
+        <v>3884808177</v>
+      </c>
+      <c r="I18" t="s">
+        <v>185</v>
+      </c>
+      <c r="J18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" t="s">
+        <v>139</v>
+      </c>
+      <c r="E19" t="s">
+        <v>153</v>
+      </c>
+      <c r="F19">
+        <v>8458911928</v>
+      </c>
+      <c r="G19" t="s">
+        <v>165</v>
+      </c>
+      <c r="H19">
+        <v>1377568747</v>
+      </c>
+      <c r="I19" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" t="s">
+        <v>132</v>
+      </c>
+      <c r="D20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20">
+        <v>8663551766</v>
+      </c>
+      <c r="G20" t="s">
+        <v>168</v>
+      </c>
+      <c r="H20">
+        <v>3114405000</v>
+      </c>
+      <c r="I20" t="s">
+        <v>187</v>
+      </c>
+      <c r="J20" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21">
+        <v>6076878492</v>
+      </c>
+      <c r="G21" t="s">
+        <v>165</v>
+      </c>
+      <c r="H21">
+        <v>3476517404</v>
+      </c>
+      <c r="I21" t="s">
+        <v>188</v>
+      </c>
+      <c r="J21" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" t="s">
+        <v>154</v>
+      </c>
+      <c r="F22">
+        <v>9127514312</v>
+      </c>
+      <c r="G22" t="s">
+        <v>167</v>
+      </c>
+      <c r="H22">
+        <v>2330093407</v>
+      </c>
+      <c r="I22" t="s">
+        <v>189</v>
+      </c>
+      <c r="J22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" t="s">
+        <v>153</v>
+      </c>
+      <c r="F23">
+        <v>8162211321</v>
+      </c>
+      <c r="G23" t="s">
+        <v>168</v>
+      </c>
+      <c r="H23">
+        <v>9195003531</v>
+      </c>
+      <c r="I23" t="s">
+        <v>190</v>
+      </c>
+      <c r="J23" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" t="s">
+        <v>140</v>
+      </c>
+      <c r="E24" t="s">
+        <v>153</v>
+      </c>
+      <c r="F24">
+        <v>9253085832</v>
+      </c>
+      <c r="G24" t="s">
+        <v>167</v>
+      </c>
+      <c r="H24">
+        <v>6115819601</v>
+      </c>
+      <c r="I24" t="s">
+        <v>191</v>
+      </c>
+      <c r="J24" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" t="s">
+        <v>132</v>
+      </c>
+      <c r="D25" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" t="s">
+        <v>153</v>
+      </c>
+      <c r="F25">
+        <v>7768768987</v>
+      </c>
+      <c r="G25" t="s">
+        <v>165</v>
+      </c>
+      <c r="H25">
+        <v>7625912065</v>
+      </c>
+      <c r="I25" t="s">
+        <v>192</v>
+      </c>
+      <c r="J25" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" t="s">
+        <v>133</v>
+      </c>
+      <c r="E26" t="s">
+        <v>154</v>
+      </c>
+      <c r="F26">
+        <v>2306765809</v>
+      </c>
+      <c r="G26" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26">
+        <v>5995152779</v>
+      </c>
+      <c r="I26" t="s">
+        <v>193</v>
+      </c>
+      <c r="J26" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" t="s">
+        <v>132</v>
+      </c>
+      <c r="D27" t="s">
+        <v>134</v>
+      </c>
+      <c r="E27" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27">
+        <v>1972434226</v>
+      </c>
+      <c r="G27" t="s">
+        <v>168</v>
+      </c>
+      <c r="H27">
+        <v>6477295074</v>
+      </c>
+      <c r="I27" t="s">
+        <v>194</v>
+      </c>
+      <c r="J27" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" t="s">
+        <v>98</v>
+      </c>
+      <c r="C28" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" t="s">
+        <v>139</v>
+      </c>
+      <c r="E28" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28">
+        <v>9218005097</v>
+      </c>
+      <c r="G28" t="s">
+        <v>168</v>
+      </c>
+      <c r="H28">
+        <v>8908433101</v>
+      </c>
+      <c r="I28" t="s">
+        <v>195</v>
+      </c>
+      <c r="J28" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" t="s">
+        <v>152</v>
+      </c>
+      <c r="F29">
+        <v>8137493121</v>
+      </c>
+      <c r="G29" t="s">
+        <v>166</v>
+      </c>
+      <c r="H29">
+        <v>8599145387</v>
+      </c>
+      <c r="I29" t="s">
+        <v>196</v>
+      </c>
+      <c r="J29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" t="s">
+        <v>135</v>
+      </c>
+      <c r="E30" t="s">
+        <v>152</v>
+      </c>
+      <c r="F30">
+        <v>4194789957</v>
+      </c>
+      <c r="G30" t="s">
+        <v>167</v>
+      </c>
+      <c r="H30">
+        <v>1768926856</v>
+      </c>
+      <c r="I30" t="s">
+        <v>197</v>
+      </c>
+      <c r="J30" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" t="s">
+        <v>101</v>
+      </c>
+      <c r="C31" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" t="s">
+        <v>140</v>
+      </c>
+      <c r="E31" t="s">
+        <v>153</v>
+      </c>
+      <c r="F31">
+        <v>8511604196</v>
+      </c>
+      <c r="G31" t="s">
+        <v>168</v>
+      </c>
+      <c r="H31">
+        <v>3469725497</v>
+      </c>
+      <c r="I31" t="s">
+        <v>198</v>
+      </c>
+      <c r="J31" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" t="s">
+        <v>140</v>
+      </c>
+      <c r="E32" t="s">
+        <v>152</v>
+      </c>
+      <c r="F32">
+        <v>6237439561</v>
+      </c>
+      <c r="G32" t="s">
+        <v>166</v>
+      </c>
+      <c r="H32">
+        <v>3859910545</v>
+      </c>
+      <c r="I32" t="s">
+        <v>199</v>
+      </c>
+      <c r="J32" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" t="s">
+        <v>132</v>
+      </c>
+      <c r="D33" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" t="s">
+        <v>152</v>
+      </c>
+      <c r="F33">
+        <v>1267462739</v>
+      </c>
+      <c r="G33" t="s">
+        <v>168</v>
+      </c>
+      <c r="H33">
+        <v>2438543261</v>
+      </c>
+      <c r="I33" t="s">
+        <v>200</v>
+      </c>
+      <c r="J33" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>104</v>
+      </c>
+      <c r="C34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" t="s">
+        <v>134</v>
+      </c>
+      <c r="E34" t="s">
+        <v>153</v>
+      </c>
+      <c r="F34">
+        <v>7766734010</v>
+      </c>
+      <c r="G34" t="s">
+        <v>168</v>
+      </c>
+      <c r="H34">
+        <v>4087021018</v>
+      </c>
+      <c r="I34" t="s">
+        <v>201</v>
+      </c>
+      <c r="J34" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>43</v>
+      </c>
+      <c r="B35" t="s">
+        <v>105</v>
+      </c>
+      <c r="C35" t="s">
+        <v>132</v>
+      </c>
+      <c r="D35" t="s">
+        <v>139</v>
+      </c>
+      <c r="E35" t="s">
+        <v>154</v>
+      </c>
+      <c r="F35">
+        <v>2968217801</v>
+      </c>
+      <c r="G35" t="s">
+        <v>168</v>
+      </c>
+      <c r="H35">
+        <v>1483637101</v>
+      </c>
+      <c r="I35" t="s">
+        <v>185</v>
+      </c>
+      <c r="J35" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" t="s">
+        <v>133</v>
+      </c>
+      <c r="E36" t="s">
+        <v>153</v>
+      </c>
+      <c r="F36">
+        <v>5744110490</v>
+      </c>
+      <c r="G36" t="s">
+        <v>165</v>
+      </c>
+      <c r="H36">
+        <v>9620239011</v>
+      </c>
+      <c r="I36" t="s">
+        <v>202</v>
+      </c>
+      <c r="J36" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" t="s">
+        <v>152</v>
+      </c>
+      <c r="F37">
+        <v>1158728677</v>
+      </c>
+      <c r="G37" t="s">
+        <v>166</v>
+      </c>
+      <c r="H37">
+        <v>2209490577</v>
+      </c>
+      <c r="I37" t="s">
+        <v>203</v>
+      </c>
+      <c r="J37" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B38" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" t="s">
+        <v>132</v>
+      </c>
+      <c r="D38" t="s">
+        <v>135</v>
+      </c>
+      <c r="E38" t="s">
+        <v>154</v>
+      </c>
+      <c r="F38">
+        <v>9613599776</v>
+      </c>
+      <c r="G38" t="s">
+        <v>167</v>
+      </c>
+      <c r="H38">
+        <v>3253990921</v>
+      </c>
+      <c r="I38" t="s">
+        <v>204</v>
+      </c>
+      <c r="J38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" t="s">
+        <v>132</v>
+      </c>
+      <c r="D39" t="s">
+        <v>133</v>
+      </c>
+      <c r="E39" t="s">
+        <v>151</v>
+      </c>
+      <c r="F39">
+        <v>3722042598</v>
+      </c>
+      <c r="G39" t="s">
+        <v>165</v>
+      </c>
+      <c r="H39">
+        <v>9846627665</v>
+      </c>
+      <c r="I39" t="s">
+        <v>205</v>
+      </c>
+      <c r="J39" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" t="s">
+        <v>132</v>
+      </c>
+      <c r="D40" t="s">
+        <v>134</v>
+      </c>
+      <c r="E40" t="s">
+        <v>152</v>
+      </c>
+      <c r="F40">
+        <v>9688756940</v>
+      </c>
+      <c r="G40" t="s">
+        <v>166</v>
+      </c>
+      <c r="H40">
+        <v>4224840660</v>
+      </c>
+      <c r="I40" t="s">
+        <v>206</v>
+      </c>
+      <c r="J40" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" t="s">
+        <v>132</v>
+      </c>
+      <c r="D41" t="s">
+        <v>140</v>
+      </c>
+      <c r="E41" t="s">
+        <v>154</v>
+      </c>
+      <c r="F41">
+        <v>7646726296</v>
+      </c>
+      <c r="G41" t="s">
+        <v>168</v>
+      </c>
+      <c r="H41">
+        <v>9472697676</v>
+      </c>
+      <c r="I41" t="s">
+        <v>207</v>
+      </c>
+      <c r="J41" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>50</v>
+      </c>
+      <c r="B42" t="s">
+        <v>111</v>
+      </c>
+      <c r="C42" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" t="s">
+        <v>140</v>
+      </c>
+      <c r="E42" t="s">
+        <v>154</v>
+      </c>
+      <c r="F42">
+        <v>8022804836</v>
+      </c>
+      <c r="G42" t="s">
+        <v>165</v>
+      </c>
+      <c r="H42">
+        <v>3109440466</v>
+      </c>
+      <c r="I42" t="s">
+        <v>208</v>
+      </c>
+      <c r="J42" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B43" t="s">
+        <v>112</v>
+      </c>
+      <c r="C43" t="s">
+        <v>132</v>
+      </c>
+      <c r="D43" t="s">
+        <v>140</v>
+      </c>
+      <c r="E43" t="s">
+        <v>153</v>
+      </c>
+      <c r="F43">
+        <v>5402477273</v>
+      </c>
+      <c r="G43" t="s">
+        <v>165</v>
+      </c>
+      <c r="H43">
+        <v>3293363772</v>
+      </c>
+      <c r="I43" t="s">
+        <v>209</v>
+      </c>
+      <c r="J43" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" t="s">
+        <v>132</v>
+      </c>
+      <c r="D44" t="s">
+        <v>135</v>
+      </c>
+      <c r="E44" t="s">
+        <v>153</v>
+      </c>
+      <c r="F44">
+        <v>7805141965</v>
+      </c>
+      <c r="G44" t="s">
+        <v>168</v>
+      </c>
+      <c r="H44">
+        <v>2723586252</v>
+      </c>
+      <c r="I44" t="s">
+        <v>180</v>
+      </c>
+      <c r="J44" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C45" t="s">
+        <v>132</v>
+      </c>
+      <c r="D45" t="s">
+        <v>140</v>
+      </c>
+      <c r="E45" t="s">
+        <v>153</v>
+      </c>
+      <c r="F45">
+        <v>4848287317</v>
+      </c>
+      <c r="G45" t="s">
+        <v>165</v>
+      </c>
+      <c r="H45">
+        <v>3147410366</v>
+      </c>
+      <c r="I45" t="s">
+        <v>210</v>
+      </c>
+      <c r="J45" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" t="s">
+        <v>115</v>
+      </c>
+      <c r="C46" t="s">
+        <v>132</v>
+      </c>
+      <c r="D46" t="s">
+        <v>135</v>
+      </c>
+      <c r="E46" t="s">
+        <v>154</v>
+      </c>
+      <c r="F46">
+        <v>6877940418</v>
+      </c>
+      <c r="G46" t="s">
+        <v>165</v>
+      </c>
+      <c r="H46">
+        <v>9292121218</v>
+      </c>
+      <c r="I46" t="s">
+        <v>211</v>
+      </c>
+      <c r="J46" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" t="s">
+        <v>116</v>
+      </c>
+      <c r="C47" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" t="s">
+        <v>151</v>
+      </c>
+      <c r="F47">
+        <v>5004708026</v>
+      </c>
+      <c r="G47" t="s">
+        <v>166</v>
+      </c>
+      <c r="H47">
+        <v>6023310014</v>
+      </c>
+      <c r="I47" t="s">
+        <v>212</v>
+      </c>
+      <c r="J47" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" t="s">
+        <v>133</v>
+      </c>
+      <c r="E48" t="s">
+        <v>153</v>
+      </c>
+      <c r="F48">
+        <v>2341590189</v>
+      </c>
+      <c r="G48" t="s">
+        <v>167</v>
+      </c>
+      <c r="H48">
+        <v>7578126359</v>
+      </c>
+      <c r="I48" t="s">
+        <v>213</v>
+      </c>
+      <c r="J48" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C49" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" t="s">
+        <v>140</v>
+      </c>
+      <c r="E49" t="s">
+        <v>151</v>
+      </c>
+      <c r="F49">
+        <v>2966602031</v>
+      </c>
+      <c r="G49" t="s">
+        <v>168</v>
+      </c>
+      <c r="H49">
+        <v>9143416763</v>
+      </c>
+      <c r="I49" t="s">
+        <v>214</v>
+      </c>
+      <c r="J49" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" t="s">
+        <v>132</v>
+      </c>
+      <c r="D50" t="s">
+        <v>133</v>
+      </c>
+      <c r="E50" t="s">
+        <v>152</v>
+      </c>
+      <c r="F50">
+        <v>3508525169</v>
+      </c>
+      <c r="G50" t="s">
+        <v>167</v>
+      </c>
+      <c r="H50">
+        <v>1779525141</v>
+      </c>
+      <c r="I50" t="s">
+        <v>215</v>
+      </c>
+      <c r="J50" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>59</v>
+      </c>
+      <c r="B51" t="s">
+        <v>120</v>
+      </c>
+      <c r="C51" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" t="s">
+        <v>133</v>
+      </c>
+      <c r="E51" t="s">
+        <v>151</v>
+      </c>
+      <c r="F51">
+        <v>2630854838</v>
+      </c>
+      <c r="G51" t="s">
+        <v>165</v>
+      </c>
+      <c r="H51">
+        <v>7240395678</v>
+      </c>
+      <c r="I51" t="s">
+        <v>216</v>
+      </c>
+      <c r="J51" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52" t="s">
+        <v>132</v>
+      </c>
+      <c r="D52" t="s">
+        <v>135</v>
+      </c>
+      <c r="E52" t="s">
+        <v>153</v>
+      </c>
+      <c r="F52">
+        <v>2930563098</v>
+      </c>
+      <c r="G52" t="s">
+        <v>166</v>
+      </c>
+      <c r="H52">
+        <v>6070496276</v>
+      </c>
+      <c r="I52" t="s">
+        <v>217</v>
+      </c>
+      <c r="J52" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" t="s">
+        <v>122</v>
+      </c>
+      <c r="C53" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" t="s">
+        <v>139</v>
+      </c>
+      <c r="E53" t="s">
+        <v>154</v>
+      </c>
+      <c r="F53">
+        <v>1034914701</v>
+      </c>
+      <c r="G53" t="s">
+        <v>165</v>
+      </c>
+      <c r="H53">
+        <v>2847281140</v>
+      </c>
+      <c r="I53" t="s">
+        <v>218</v>
+      </c>
+      <c r="J53" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" t="s">
+        <v>123</v>
+      </c>
+      <c r="C54" t="s">
+        <v>132</v>
+      </c>
+      <c r="D54" t="s">
+        <v>139</v>
+      </c>
+      <c r="E54" t="s">
+        <v>152</v>
+      </c>
+      <c r="F54">
+        <v>5238930734</v>
+      </c>
+      <c r="G54" t="s">
+        <v>165</v>
+      </c>
+      <c r="H54">
+        <v>5201773861</v>
+      </c>
+      <c r="I54" t="s">
+        <v>219</v>
+      </c>
+      <c r="J54" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" t="s">
+        <v>124</v>
+      </c>
+      <c r="C55" t="s">
+        <v>132</v>
+      </c>
+      <c r="D55" t="s">
+        <v>135</v>
+      </c>
+      <c r="E55" t="s">
+        <v>153</v>
+      </c>
+      <c r="F55">
+        <v>6401555178</v>
+      </c>
+      <c r="G55" t="s">
+        <v>168</v>
+      </c>
+      <c r="H55">
+        <v>6649939054</v>
+      </c>
+      <c r="I55" t="s">
+        <v>220</v>
+      </c>
+      <c r="J55" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56" t="s">
+        <v>125</v>
+      </c>
+      <c r="C56" t="s">
+        <v>132</v>
+      </c>
+      <c r="D56" t="s">
+        <v>134</v>
+      </c>
+      <c r="E56" t="s">
+        <v>151</v>
+      </c>
+      <c r="F56">
+        <v>5255512045</v>
+      </c>
+      <c r="G56" t="s">
+        <v>166</v>
+      </c>
+      <c r="H56">
+        <v>8448407799</v>
+      </c>
+      <c r="I56" t="s">
+        <v>221</v>
+      </c>
+      <c r="J56" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" t="s">
+        <v>103</v>
+      </c>
+      <c r="C57" t="s">
+        <v>132</v>
+      </c>
+      <c r="D57" t="s">
+        <v>140</v>
+      </c>
+      <c r="E57" t="s">
+        <v>151</v>
+      </c>
+      <c r="F57">
+        <v>7109472215</v>
+      </c>
+      <c r="G57" t="s">
+        <v>165</v>
+      </c>
+      <c r="H57">
+        <v>2048230014</v>
+      </c>
+      <c r="I57" t="s">
+        <v>222</v>
+      </c>
+      <c r="J57" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" t="s">
+        <v>132</v>
+      </c>
+      <c r="D58" t="s">
+        <v>140</v>
+      </c>
+      <c r="E58" t="s">
+        <v>154</v>
+      </c>
+      <c r="F58">
+        <v>6910804293</v>
+      </c>
+      <c r="G58" t="s">
+        <v>167</v>
+      </c>
+      <c r="H58">
+        <v>2481888537</v>
+      </c>
+      <c r="I58" t="s">
+        <v>223</v>
+      </c>
+      <c r="J58" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" t="s">
+        <v>132</v>
+      </c>
+      <c r="D59" t="s">
+        <v>133</v>
+      </c>
+      <c r="E59" t="s">
+        <v>151</v>
+      </c>
+      <c r="F59">
+        <v>1556139689</v>
+      </c>
+      <c r="G59" t="s">
+        <v>166</v>
+      </c>
+      <c r="H59">
+        <v>9789884086</v>
+      </c>
+      <c r="I59" t="s">
+        <v>224</v>
+      </c>
+      <c r="J59" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B60" t="s">
+        <v>128</v>
+      </c>
+      <c r="C60" t="s">
+        <v>132</v>
+      </c>
+      <c r="D60" t="s">
+        <v>133</v>
+      </c>
+      <c r="E60" t="s">
+        <v>154</v>
+      </c>
+      <c r="F60">
+        <v>8678854896</v>
+      </c>
+      <c r="G60" t="s">
+        <v>166</v>
+      </c>
+      <c r="H60">
+        <v>5899315309</v>
+      </c>
+      <c r="I60" t="s">
+        <v>225</v>
+      </c>
+      <c r="J60" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>69</v>
+      </c>
+      <c r="B61" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61" t="s">
+        <v>132</v>
+      </c>
+      <c r="D61" t="s">
+        <v>134</v>
+      </c>
+      <c r="E61" t="s">
+        <v>153</v>
+      </c>
+      <c r="F61">
+        <v>3551619877</v>
+      </c>
+      <c r="G61" t="s">
+        <v>168</v>
+      </c>
+      <c r="H61">
+        <v>7362448785</v>
+      </c>
+      <c r="I61" t="s">
+        <v>226</v>
+      </c>
+      <c r="J61" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
         <v>70</v>
       </c>
-      <c r="J11" t="s">
+      <c r="B62" t="s">
+        <v>130</v>
+      </c>
+      <c r="C62" t="s">
+        <v>132</v>
+      </c>
+      <c r="D62" t="s">
+        <v>135</v>
+      </c>
+      <c r="E62" t="s">
+        <v>151</v>
+      </c>
+      <c r="F62">
+        <v>5891091359</v>
+      </c>
+      <c r="G62" t="s">
+        <v>165</v>
+      </c>
+      <c r="H62">
+        <v>9557641343</v>
+      </c>
+      <c r="I62" t="s">
+        <v>227</v>
+      </c>
+      <c r="J62" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
         <v>71</v>
       </c>
+      <c r="B63" t="s">
+        <v>131</v>
+      </c>
+      <c r="C63" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" t="s">
+        <v>140</v>
+      </c>
+      <c r="E63" t="s">
+        <v>152</v>
+      </c>
+      <c r="F63">
+        <v>3220517966</v>
+      </c>
+      <c r="G63" t="s">
+        <v>167</v>
+      </c>
+      <c r="H63">
+        <v>4454833655</v>
+      </c>
+      <c r="I63" t="s">
+        <v>228</v>
+      </c>
+      <c r="J63" t="s">
+        <v>244</v>
+      </c>
     </row>
   </sheetData>
-  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>